--- a/UMAWorldConf/配置/技能表.xlsx
+++ b/UMAWorldConf/配置/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireBall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +515,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -521,7 +529,7 @@
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28">
@@ -637,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -666,7 +674,9 @@
       <c r="K4" s="4">
         <v>6</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="14.5">
       <c r="A5" s="4"/>

--- a/UMAWorldConf/配置/技能表.xlsx
+++ b/UMAWorldConf/配置/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -77,44 +77,303 @@
     <t>技能预制件</t>
   </si>
   <si>
-    <t>prerab</t>
-  </si>
-  <si>
     <t>speed</t>
   </si>
   <si>
+    <t>消耗MP</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>技能威力</t>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Bullet/FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soilBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Prefab/Bullet/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Soil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ball</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ool</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Without = 0,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>火属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Fire = 1,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>冰属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Forzen = 2,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>雷属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Lighting = 3,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>毒属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Poison = 4,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>神圣属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Holy = 5,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黑暗属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Dark = 6</t>
+    </r>
+  </si>
+  <si>
+    <t>区域魔法 Area = 100001,</t>
+  </si>
+  <si>
+    <t>近战魔法 Melee = 100002,</t>
+  </si>
+  <si>
+    <t>召唤魔法 Summon = 200000,</t>
+  </si>
+  <si>
+    <t>恢复魔法 Recover = 200001,</t>
+  </si>
+  <si>
+    <t>增益魔法 Buff = 200002,</t>
+  </si>
+  <si>
+    <r>
+      <t>减益魔法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Debuff = 200003,</t>
+    </r>
+  </si>
+  <si>
+    <t>直线魔法 Line = 100000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLine</t>
+  </si>
+  <si>
     <t>移动速度</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>消耗MP</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>技能威力</t>
-  </si>
-  <si>
-    <t>fireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +418,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -187,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -217,6 +509,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,27 +811,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="4.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.9140625" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="21.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -557,18 +859,22 @@
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
+      <c r="I1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="28">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="28">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -590,21 +896,27 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.5">
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -621,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>2</v>
@@ -629,70 +941,112 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>10</v>
+      <c r="I3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.5">
+      <c r="L3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>3</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4">
         <v>5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.5">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="K4" s="4">
-        <v>6</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.5">
+      <c r="J5" s="4">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -705,8 +1059,10 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.5">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -719,10 +1075,72 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.5">
+      <c r="E13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5">
+      <c r="E14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5">
+      <c r="E15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5">
+      <c r="E16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="5:6" ht="14.5">
+      <c r="E17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="14.5">
+      <c r="E18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="14.5">
+      <c r="E19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="14.5">
+      <c r="F20" s="16" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UMAWorldConf/配置/技能表.xlsx
+++ b/UMAWorldConf/配置/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">through </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -830,11 +842,11 @@
     <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="21.9140625" customWidth="1"/>
+    <col min="13" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="21.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:15" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -871,10 +883,15 @@
       <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="28">
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="28">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -914,9 +931,12 @@
       <c r="M2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.5">
+      <c r="N2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -956,9 +976,12 @@
       <c r="M3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.5">
+      <c r="N3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -998,11 +1021,14 @@
       <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5">
+    <row r="5" spans="1:15" ht="14.5">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1042,11 +1068,14 @@
       <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5">
+    <row r="6" spans="1:15" ht="14.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1061,8 +1090,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.5">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1077,8 +1107,9 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.5">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.5">
       <c r="E13" s="16" t="s">
         <v>32</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5">
+    <row r="14" spans="1:15" ht="14.5">
       <c r="E14" s="16" t="s">
         <v>33</v>
       </c>
@@ -1094,7 +1125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5">
+    <row r="15" spans="1:15" ht="14.5">
       <c r="E15" s="16" t="s">
         <v>34</v>
       </c>
@@ -1102,7 +1133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5">
+    <row r="16" spans="1:15" ht="14.5">
       <c r="E16" s="16" t="s">
         <v>35</v>
       </c>

--- a/UMAWorldConf/配置/技能表.xlsx
+++ b/UMAWorldConf/配置/技能表.xlsx
@@ -826,7 +826,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1010,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4">
         <v>5</v>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K5" s="4">
         <v>20</v>
